--- a/biology/Zoologie/Goniasmatidae/Goniasmatidae.xlsx
+++ b/biology/Zoologie/Goniasmatidae/Goniasmatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Goniasmatidae sont une famille fossile de mollusques gastéropodes du super-ordre des Caenogastropoda et de la super-famille des Orthonematoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (22 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (22 janvier 2021) :
 † genre Akasakiella Nützel &amp; Nakazawa, 2012
 † genre Cerithioides Haughton, 1859
 † genre Cerithiozone Nützel &amp; Nakazawa, 2012
@@ -522,7 +536,7 @@
 † genre Goniasma  Tomlin, 1930
 † genre Murchisonietta Nützel et al. 2018
 † genre Stegocoelia Donald, 1889
-Auxquels BioLib                    (22 janvier 2021)[3] ajoute :
+Auxquels BioLib                    (22 janvier 2021) ajoute :
 † genre Erwinispira Nützel &amp; Pan, 2005
 † genre Platyzona Knight, 1945</t>
         </is>
@@ -552,7 +566,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Alexander Nützel et Klaus Bandel, « Goniasmidae and Orthonemidae: two new families of the Palaeozoic Caenogastropoda (Mollusca, Gastropoda) », Neues Jahrbuch für Geologie und Paläontologie Monatshefte, vol. 2000, no 9,‎ septembre 2000, p. 557-569.</t>
         </is>
